--- a/ckd_dataset_modified_uci_complete.xlsx
+++ b/ckd_dataset_modified_uci_complete.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fit_fest_2025_entrepreneurchallenge\repo\CKDAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{476F1A53-4311-472F-A753-362D333D4A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C3DD63F2-FB9D-43E4-9A5D-B27036F4B09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F01D710E-6CB6-4D26-9C79-BF2BC8B5F051}"/>
   </bookViews>
   <sheets>
     <sheet name="ckd_dataset_modified_uci_comple" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ckd_dataset_modified_uci_comple!$A$1:$AC$201</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1301,10 +1304,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57D0AEA-AA1B-4B23-B8EE-8E950D11A5A5}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1398,7 +1402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1487,7 +1491,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1576,7 +1580,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1665,7 +1669,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1754,7 +1758,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1932,7 +1936,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2021,7 +2025,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2199,7 +2203,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2555,7 +2559,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2911,7 +2915,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -3445,7 +3449,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3712,7 +3716,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4157,7 +4161,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -4246,7 +4250,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -4424,7 +4428,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -4691,7 +4695,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
@@ -5047,7 +5051,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -5225,7 +5229,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -5581,7 +5585,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -5848,7 +5852,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -5937,7 +5941,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -6026,7 +6030,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
@@ -6115,7 +6119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
@@ -6382,7 +6386,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0</v>
       </c>
@@ -6471,7 +6475,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0</v>
       </c>
@@ -6560,7 +6564,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -6649,7 +6653,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -7005,7 +7009,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -7094,7 +7098,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -7183,7 +7187,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1</v>
       </c>
@@ -7450,7 +7454,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -7539,7 +7543,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -7717,7 +7721,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0</v>
       </c>
@@ -7806,7 +7810,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -7895,7 +7899,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -7984,7 +7988,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -8073,7 +8077,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0</v>
       </c>
@@ -8162,7 +8166,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1</v>
       </c>
@@ -8340,7 +8344,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0</v>
       </c>
@@ -8429,7 +8433,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1</v>
       </c>
@@ -8696,7 +8700,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1</v>
       </c>
@@ -8785,7 +8789,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1</v>
       </c>
@@ -9052,7 +9056,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1</v>
       </c>
@@ -9141,7 +9145,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1</v>
       </c>
@@ -9319,7 +9323,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1</v>
       </c>
@@ -9408,7 +9412,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1</v>
       </c>
@@ -9497,7 +9501,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0</v>
       </c>
@@ -9586,7 +9590,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1</v>
       </c>
@@ -9675,7 +9679,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1</v>
       </c>
@@ -9764,7 +9768,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1</v>
       </c>
@@ -9853,7 +9857,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1</v>
       </c>
@@ -10120,7 +10124,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1</v>
       </c>
@@ -10209,7 +10213,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0</v>
       </c>
@@ -10387,7 +10391,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1</v>
       </c>
@@ -10654,7 +10658,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1</v>
       </c>
@@ -10921,7 +10925,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
@@ -11010,7 +11014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>0</v>
       </c>
@@ -11099,7 +11103,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1</v>
       </c>
@@ -11188,7 +11192,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>0</v>
       </c>
@@ -11277,7 +11281,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>0</v>
       </c>
@@ -11366,7 +11370,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>0</v>
       </c>
@@ -11455,7 +11459,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1</v>
       </c>
@@ -11544,7 +11548,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1</v>
       </c>
@@ -11722,7 +11726,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1</v>
       </c>
@@ -11811,7 +11815,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>0</v>
       </c>
@@ -11900,7 +11904,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1</v>
       </c>
@@ -12078,7 +12082,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>0</v>
       </c>
@@ -12167,7 +12171,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>0</v>
       </c>
@@ -12256,7 +12260,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1</v>
       </c>
@@ -12345,7 +12349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1</v>
       </c>
@@ -12523,7 +12527,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>0</v>
       </c>
@@ -12612,7 +12616,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1</v>
       </c>
@@ -12701,7 +12705,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>0</v>
       </c>
@@ -12790,7 +12794,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1</v>
       </c>
@@ -12879,7 +12883,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1</v>
       </c>
@@ -13057,7 +13061,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>0</v>
       </c>
@@ -13146,7 +13150,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>0</v>
       </c>
@@ -13413,7 +13417,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>0</v>
       </c>
@@ -13502,7 +13506,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1</v>
       </c>
@@ -13591,7 +13595,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>0</v>
       </c>
@@ -13680,7 +13684,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1</v>
       </c>
@@ -13769,7 +13773,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1</v>
       </c>
@@ -13858,7 +13862,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1</v>
       </c>
@@ -13947,7 +13951,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>0</v>
       </c>
@@ -14214,7 +14218,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>0</v>
       </c>
@@ -14303,7 +14307,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>0</v>
       </c>
@@ -14392,7 +14396,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1</v>
       </c>
@@ -14481,7 +14485,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>0</v>
       </c>
@@ -14570,7 +14574,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>0</v>
       </c>
@@ -14659,7 +14663,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>0</v>
       </c>
@@ -14748,7 +14752,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1</v>
       </c>
@@ -14837,7 +14841,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1</v>
       </c>
@@ -14926,7 +14930,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1</v>
       </c>
@@ -15193,7 +15197,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>0</v>
       </c>
@@ -15282,7 +15286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1</v>
       </c>
@@ -15371,7 +15375,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>0</v>
       </c>
@@ -15549,7 +15553,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1</v>
       </c>
@@ -15638,7 +15642,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>0</v>
       </c>
@@ -15727,7 +15731,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>0</v>
       </c>
@@ -15816,7 +15820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>0</v>
       </c>
@@ -15905,7 +15909,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>0</v>
       </c>
@@ -16083,7 +16087,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1</v>
       </c>
@@ -16172,7 +16176,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
@@ -16261,7 +16265,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1</v>
       </c>
@@ -16350,7 +16354,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
@@ -16439,7 +16443,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1</v>
       </c>
@@ -16528,7 +16532,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>0</v>
       </c>
@@ -16617,7 +16621,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>0</v>
       </c>
@@ -16795,7 +16799,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1</v>
       </c>
@@ -16884,7 +16888,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1</v>
       </c>
@@ -16973,7 +16977,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>0</v>
       </c>
@@ -17240,7 +17244,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1</v>
       </c>
@@ -17329,7 +17333,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1</v>
       </c>
@@ -17418,7 +17422,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1</v>
       </c>
@@ -17507,7 +17511,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1</v>
       </c>
@@ -17596,7 +17600,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1</v>
       </c>
@@ -17685,7 +17689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>0</v>
       </c>
@@ -17774,7 +17778,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1</v>
       </c>
@@ -17863,7 +17867,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>0</v>
       </c>
@@ -17952,7 +17956,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1</v>
       </c>
@@ -18219,7 +18223,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>0</v>
       </c>
@@ -18308,7 +18312,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1</v>
       </c>
@@ -18486,7 +18490,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>0</v>
       </c>
@@ -18575,7 +18579,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>0</v>
       </c>
@@ -18664,7 +18668,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>0</v>
       </c>
@@ -18753,7 +18757,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1</v>
       </c>
@@ -18842,7 +18846,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>0</v>
       </c>
@@ -19109,7 +19113,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1</v>
       </c>
@@ -19199,6 +19203,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AC201" xr:uid="{D57D0AEA-AA1B-4B23-B8EE-8E950D11A5A5}">
+    <filterColumn colId="28">
+      <filters>
+        <filter val="notckd"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>